--- a/gainers.xlsx
+++ b/gainers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>volume</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>chart_link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -451,12 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BLURUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,044,524,869</t>
+          <t>$313,612,381</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -466,12 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MINAUSDT</t>
+          <t>APEUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$207,339,867</t>
+          <t>$174,309,468</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -481,12 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ETHDYDXUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$207,706,090</t>
+          <t>$214,872,272</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -496,12 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>MINAUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$90,252,906</t>
+          <t>$282,363,441</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -511,12 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SUIUSDT</t>
+          <t>SANDUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$206,977,873</t>
+          <t>$141,376,439</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -526,12 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>THETAUSDT</t>
+          <t>FLOWUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$25,313,625</t>
+          <t>$70,112,116</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -541,12 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MNTUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$106,100,997</t>
+          <t>$97,933,594</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -556,12 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RNDRUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$97,425,768</t>
+          <t>$81,851,596</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -571,12 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EGLDUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$65,249,655</t>
+          <t>$179,577,789</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -586,12 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROSEUSDT</t>
+          <t>SUIUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$17,868,801</t>
+          <t>$279,234,119</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -601,12 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$22,171,222</t>
+          <t>$49,702,569</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -616,12 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RPLUSDT</t>
+          <t>KASUSDT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$4,654,288</t>
+          <t>$70,567,905</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -631,12 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>FTMUSDT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$105,657,601</t>
+          <t>$58,991,941</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -646,12 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$16,796,689</t>
+          <t>$71,138,661</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -661,12 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SANDUSDT</t>
+          <t>ZECUSDT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$71,047,557</t>
+          <t>$69,311,205</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -676,12 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KASUSDT</t>
+          <t>TRXUSDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$58,032,454</t>
+          <t>$397,094,918</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -691,12 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GMXUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$14,989,735</t>
+          <t>$14,511,670</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -706,12 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GNOUSDT</t>
+          <t>THETAUSDT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$8,865,563</t>
+          <t>$21,790,117</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -721,12 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSVUSDT</t>
+          <t>BGBUSDT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$38,479,506</t>
+          <t>$21,026,159</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -736,12 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>XECUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$7,006,878</t>
+          <t>$509,615,492</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -751,12 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>XLMUSDT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$38,888,904</t>
+          <t>$63,943,735</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -766,12 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CRVUSDT</t>
+          <t>QNTUSDT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$47,235,190</t>
+          <t>$16,544,396</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -781,12 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$30,006,427</t>
+          <t>$45,807,474</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -796,12 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>XMRUSDT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$84,640,106</t>
+          <t>$78,116,205</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -811,12 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FXSUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$18,529,865</t>
+          <t>$142,432,757</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -826,12 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>LTCUSDT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$327,697,140</t>
+          <t>$305,536,301</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -841,12 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DOGEUSDT</t>
+          <t>CROUSDT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$336,790,373</t>
+          <t>$24,849,917</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -856,12 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CROUSDT</t>
+          <t>ICPUSDT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$19,355,652</t>
+          <t>$49,625,026</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -871,12 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$57,874,022</t>
+          <t>$44,629,832</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>
@@ -886,12 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>XTZUSDT</t>
+          <t>SHIBUSDT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$21,693,515</t>
+          <t>$122,149,772</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
         </is>
       </c>
     </row>

--- a/gainers.xlsx
+++ b/gainers.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$313,612,381</t>
+          <t>$323,020,729</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AGMTUSDT</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$174,309,468</t>
+          <t>$174,445,632</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AAPEUSDT</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$214,872,272</t>
+          <t>$217,570,242</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AMANAUSDT</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$282,363,441</t>
+          <t>$285,466,107</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AMINAUSDT</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$141,376,439</t>
+          <t>$142,422,980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ASANDUSDT</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$70,112,116</t>
+          <t>$70,652,184</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AFLOWUSDT</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$97,933,594</t>
+          <t>$98,356,210</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ASNXUSDT</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$81,851,596</t>
+          <t>$82,031,320</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AINJUSDT</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$179,577,789</t>
+          <t>$179,829,357</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AGALAUSDT</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SUIUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$279,234,119</t>
+          <t>$49,746,228</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AALGOUSDT</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>SUIUSDT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$49,702,569</t>
+          <t>$280,906,348</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ASUIUSDT</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KASUSDT</t>
+          <t>FTMUSDT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$70,567,905</t>
+          <t>$59,001,586</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AFTMUSDT</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FTMUSDT</t>
+          <t>KASUSDT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$58,991,941</t>
+          <t>$70,434,982</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AKASUSDT</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>TRXUSDT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$71,138,661</t>
+          <t>$397,147,174</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ATRXUSDT</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$69,311,205</t>
+          <t>$69,096,555</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AZECUSDT</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRXUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$397,094,918</t>
+          <t>$71,708,724</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AAXSUSDT</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>BGBUSDT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$14,511,670</t>
+          <t>$21,006,139</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ABGBUSDT</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>THETAUSDT</t>
+          <t>XLMUSDT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$21,790,117</t>
+          <t>$64,518,628</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AXLMUSDT</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BGBUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$21,026,159</t>
+          <t>$509,245,504</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ALINKUSDT</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>THETAUSDT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$509,615,492</t>
+          <t>$21,795,965</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ATHETAUSDT</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>XLMUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$63,943,735</t>
+          <t>$45,841,151</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ACHZUSDT</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>QNTUSDT</t>
+          <t>XMRUSDT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$16,544,396</t>
+          <t>$78,054,952</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AXMRUSDT</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>QNTUSDT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$45,807,474</t>
+          <t>$16,524,327</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AQNTUSDT</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>XMRUSDT</t>
+          <t>LTCUSDT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$78,116,205</t>
+          <t>$305,308,547</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ALTCUSDT</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>CROUSDT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$142,432,757</t>
+          <t>$24,907,425</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ACROUSDT</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LTCUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$305,536,301</t>
+          <t>$141,779,769</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AEOSUSDT</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CROUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$24,849,917</t>
+          <t>$14,210,661</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AKAVAUSDT</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$49,625,026</t>
+          <t>$44,663,650</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3AHBARUSDT</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HBARUSDT</t>
+          <t>BTTUSDT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$44,629,832</t>
+          <t>$25,895,561</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ABTTUSDT</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$122,149,772</t>
+          <t>$122,344,227</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://fr.tradingview.com/symbols/%s/?exchange=BINANCE</t>
+          <t>https://fr.tradingview.com/chart/?symbol=BINANCE%3ASHIBUSDT</t>
         </is>
       </c>
     </row>
